--- a/tcs.xlsx
+++ b/tcs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farnaaz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farnaaz\Desktop\Testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="7480" windowHeight="3060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7480" windowHeight="3060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>TEST CASES</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Use Case Testing</t>
+  </si>
+  <si>
+    <t>commit modification  1</t>
   </si>
 </sst>
 </file>
@@ -550,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E40"/>
+  <dimension ref="A3:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -835,6 +838,11 @@
         <v>44</v>
       </c>
     </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
